--- a/config_5.11/shoping_config_vivo.xlsx
+++ b/config_5.11/shoping_config_vivo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -6682,8 +6682,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6725,16 +6725,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6759,25 +6767,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6790,40 +6782,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6847,7 +6815,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6858,6 +6850,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6947,19 +6947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6971,7 +6959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6989,7 +6977,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7001,67 +7061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,25 +7091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7137,6 +7137,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7162,25 +7171,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7197,25 +7197,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7234,6 +7225,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7242,10 +7242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7254,31 +7254,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7287,76 +7287,76 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7365,22 +7365,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10132,12 +10132,12 @@
   <sheetPr/>
   <dimension ref="A1:AN627"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W593" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB620" sqref="AB620"/>
+      <selection pane="bottomRight" activeCell="AB617" sqref="AB617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49945,7 +49945,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA619" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AH619" s="29">
         <v>1</v>
@@ -50013,7 +50013,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA620" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AH620" s="29">
         <v>1</v>
@@ -50081,7 +50081,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA621" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AH621" s="29">
         <v>1</v>
@@ -50149,7 +50149,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA622" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AH622" s="29">
         <v>1</v>
@@ -50217,7 +50217,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA623" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AH623" s="29">
         <v>1</v>
@@ -50285,7 +50285,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA624" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AH624" s="29">
         <v>1</v>
@@ -50353,7 +50353,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA625" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AH625" s="29">
         <v>1</v>
@@ -50421,7 +50421,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA626" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AH626" s="29">
         <v>1</v>
@@ -50489,7 +50489,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA627" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AH627" s="29">
         <v>1</v>
@@ -50517,7 +50517,7 @@
   <sheetPr/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
